--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_14.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/40/Output_2_14.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>509580.1548437803</v>
+        <v>511520.2347135631</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>925407.2786592082</v>
+        <v>925407.2786592083</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>17533693.5348838</v>
+        <v>17533693.53488381</v>
       </c>
     </row>
     <row r="9">
@@ -665,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>35.72422578294405</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
@@ -716,7 +718,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>274.2838073416025</v>
@@ -735,10 +737,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>9.037615104226541</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -783,25 +785,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U3" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V3" t="n">
-        <v>231.9087310396551</v>
+        <v>174.0731454704993</v>
       </c>
       <c r="W3" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>203.671151418586</v>
@@ -841,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -859,13 +861,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>84.37801704792682</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
@@ -896,7 +898,7 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>36.36486963835926</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -905,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>274.2838073416025</v>
+        <v>35.70559250379693</v>
       </c>
       <c r="G5" t="n">
         <v>274.2838073416025</v>
@@ -917,7 +919,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -962,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="6">
@@ -972,28 +974,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>114.7736570458744</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,28 +1022,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>148.7409757877005</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="7">
@@ -1072,13 +1074,13 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>10.38017012637139</v>
+        <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1096,10 +1098,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>5.52197897182606</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1178,28 +1180,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>190.9632541887277</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
+        <v>241.5891775064833</v>
+      </c>
+      <c r="W8" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
     </row>
     <row r="9">
@@ -1209,10 +1211,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.3721256103448</v>
+        <v>114.7736570458744</v>
       </c>
       <c r="C9" t="n">
-        <v>120.4271153629306</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D9" t="n">
         <v>146.1124235746456</v>
@@ -1333,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>99.15242676576018</v>
       </c>
       <c r="S10" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1376,19 +1378,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>36.36486963835926</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="I11" t="n">
-        <v>0</v>
+        <v>205.224307868124</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1424,19 +1426,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1446,7 +1448,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>114.7736570458744</v>
+        <v>114.7736570458747</v>
       </c>
       <c r="C12" t="n">
         <v>171.025583927401</v>
@@ -1534,10 +1536,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,13 +1548,13 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -1616,7 +1618,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>168.7978542790848</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="G14" t="n">
         <v>274.2838073416025</v>
@@ -1652,7 +1654,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -1664,7 +1666,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>36.36486963835926</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -1683,7 +1685,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>165.3721256103448</v>
+        <v>114.7736570458747</v>
       </c>
       <c r="C15" t="n">
         <v>171.025583927401</v>
@@ -1692,19 +1694,19 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E15" t="n">
-        <v>128.2699682503134</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G15" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1746,13 +1748,13 @@
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X15" t="n">
         <v>0</v>
       </c>
       <c r="Y15" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -1762,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -1783,13 +1785,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>75.29987199599606</v>
       </c>
       <c r="J16" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -1920,7 +1922,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>20.07867728478316</v>
+        <v>114.7736570458747</v>
       </c>
       <c r="C18" t="n">
         <v>171.025583927401</v>
@@ -1968,7 +1970,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -2044,16 +2046,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>99.15242676576017</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -2078,76 +2080,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>18.62406031006298</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
         <v>0</v>
       </c>
       <c r="D20" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0</v>
+      </c>
+      <c r="I20" t="n">
+        <v>205.224307868124</v>
+      </c>
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
+        <v>0</v>
+      </c>
+      <c r="L20" t="n">
+        <v>0</v>
+      </c>
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0</v>
+      </c>
+      <c r="O20" t="n">
+        <v>0</v>
+      </c>
+      <c r="P20" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
+      <c r="R20" t="n">
+        <v>0</v>
+      </c>
+      <c r="S20" t="n">
+        <v>0</v>
+      </c>
+      <c r="T20" t="n">
+        <v>0</v>
+      </c>
+      <c r="U20" t="n">
+        <v>36.36486963835926</v>
+      </c>
+      <c r="V20" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
-        <v>0</v>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>0</v>
-      </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
-        <v>0</v>
-      </c>
-      <c r="L20" t="n">
-        <v>0</v>
-      </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="n">
-        <v>0</v>
-      </c>
-      <c r="O20" t="n">
-        <v>0</v>
-      </c>
-      <c r="P20" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q20" t="n">
-        <v>0</v>
-      </c>
-      <c r="R20" t="n">
-        <v>0</v>
-      </c>
-      <c r="S20" t="n">
-        <v>0</v>
-      </c>
-      <c r="T20" t="n">
-        <v>222.9651171964204</v>
-      </c>
-      <c r="U20" t="n">
-        <v>0</v>
-      </c>
-      <c r="V20" t="n">
-        <v>0</v>
-      </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X20" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="Y20" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2160,7 +2162,7 @@
         <v>0</v>
       </c>
       <c r="C21" t="n">
-        <v>127.167154708301</v>
+        <v>129.9627172275744</v>
       </c>
       <c r="D21" t="n">
         <v>0</v>
@@ -2169,7 +2171,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G21" t="n">
         <v>136.0232102050423</v>
@@ -2205,13 +2207,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
       </c>
       <c r="T21" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U21" t="n">
         <v>224.6571770672012</v>
@@ -2220,7 +2222,7 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W21" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X21" t="n">
         <v>0</v>
@@ -2296,10 +2298,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="W22" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -2315,10 +2317,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C23" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D23" t="n">
         <v>274.2838073416025</v>
@@ -2327,7 +2329,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -2339,7 +2341,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -2375,13 +2377,13 @@
         <v>0</v>
       </c>
       <c r="V23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="W23" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
         <v>0</v>
@@ -2394,10 +2396,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C24" t="n">
-        <v>123.5915470799686</v>
+        <v>0</v>
       </c>
       <c r="D24" t="n">
         <v>0</v>
@@ -2445,25 +2447,25 @@
         <v>0</v>
       </c>
       <c r="S24" t="n">
-        <v>168.9616139056444</v>
+        <v>159.502812766166</v>
       </c>
       <c r="T24" t="n">
         <v>198.3825319082687</v>
       </c>
       <c r="U24" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W24" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X24" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y24" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
@@ -2494,10 +2496,10 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>25.15457984420473</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -2536,7 +2538,7 @@
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -2552,31 +2554,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
       </c>
       <c r="D26" t="n">
+        <v>0</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
+        <v>0</v>
+      </c>
+      <c r="G26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="E26" t="n">
+      <c r="H26" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="F26" t="n">
-        <v>0</v>
-      </c>
-      <c r="G26" t="n">
-        <v>0</v>
-      </c>
-      <c r="H26" t="n">
-        <v>0</v>
-      </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -2600,7 +2602,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -2612,10 +2614,10 @@
         <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>274.2838073416025</v>
+        <v>99.07907767104376</v>
       </c>
       <c r="X26" t="n">
         <v>0</v>
@@ -2631,7 +2633,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C27" t="n">
         <v>171.025583927401</v>
@@ -2646,13 +2648,13 @@
         <v>143.5062320835493</v>
       </c>
       <c r="G27" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H27" t="n">
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>42.61446194521916</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2681,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -2691,13 +2693,13 @@
         <v>224.6571770672012</v>
       </c>
       <c r="V27" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W27" t="n">
         <v>0</v>
       </c>
       <c r="X27" t="n">
-        <v>67.82283693057843</v>
+        <v>0</v>
       </c>
       <c r="Y27" t="n">
         <v>0</v>
@@ -2734,7 +2736,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>0</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K28" t="n">
         <v>0</v>
@@ -2764,13 +2766,13 @@
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>90.07428171382941</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -2792,10 +2794,10 @@
         <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>263.735944136979</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
         <v>0</v>
@@ -2846,16 +2848,16 @@
         <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>251.4777635765444</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="Y29" t="n">
         <v>0</v>
@@ -2868,16 +2870,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C30" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D30" t="n">
         <v>0</v>
       </c>
       <c r="E30" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F30" t="n">
         <v>0</v>
@@ -2916,28 +2918,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>0</v>
+        <v>159.5028127661658</v>
       </c>
       <c r="T30" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U30" t="n">
-        <v>0</v>
+        <v>224.6571770672012</v>
       </c>
       <c r="V30" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W30" t="n">
-        <v>69.18169549821559</v>
+        <v>249.98934675</v>
       </c>
       <c r="X30" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y30" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
@@ -2950,16 +2952,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>31.93850246840919</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -3004,7 +3006,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>11.57657371040608</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -3026,7 +3028,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C32" t="n">
         <v>0</v>
@@ -3044,13 +3046,13 @@
         <v>0</v>
       </c>
       <c r="H32" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -3083,19 +3085,19 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="W32" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="X32" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y32" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="Y32" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3117,10 +3119,10 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0</v>
+        <v>17.40050486091396</v>
       </c>
       <c r="G33" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H33" t="n">
         <v>0</v>
@@ -3159,7 +3161,7 @@
         <v>0</v>
       </c>
       <c r="T33" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U33" t="n">
         <v>224.6571770672012</v>
@@ -3171,7 +3173,7 @@
         <v>249.98934675</v>
       </c>
       <c r="X33" t="n">
-        <v>159.5028127661658</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y33" t="n">
         <v>0</v>
@@ -3193,10 +3195,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>32.75410523180386</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>146.1590214098045</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -3247,7 +3249,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -3263,22 +3265,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="F35" t="n">
-        <v>274.2838073416025</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="G35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -3287,7 +3289,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -3332,7 +3334,7 @@
         <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -3399,7 +3401,7 @@
         <v>0</v>
       </c>
       <c r="U36" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V36" t="n">
         <v>231.9087310396551</v>
@@ -3411,7 +3413,7 @@
         <v>204.4616296084783</v>
       </c>
       <c r="Y36" t="n">
-        <v>153.4237150659563</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="37">
@@ -3427,10 +3429,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>29.90756012708908</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3472,7 +3474,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -3500,7 +3502,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -3512,19 +3514,19 @@
         <v>274.2838073416025</v>
       </c>
       <c r="F38" t="n">
-        <v>274.2838073416025</v>
+        <v>240.9299003719208</v>
       </c>
       <c r="G38" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="H38" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -3591,16 +3593,16 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>44.75502769643857</v>
+        <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -3627,28 +3629,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T39" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U39" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V39" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W39" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X39" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="40">
@@ -3661,10 +3663,10 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.3365529312023</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>11.57657371040602</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
         <v>0</v>
@@ -3712,7 +3714,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>178.9131266416084</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -3737,22 +3739,22 @@
         </is>
       </c>
       <c r="B41" t="n">
+        <v>0</v>
+      </c>
+      <c r="C41" t="n">
         <v>274.2838073416025</v>
       </c>
-      <c r="C41" t="n">
-        <v>0</v>
-      </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>240.9299003719209</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
         <v>0</v>
@@ -3761,7 +3763,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>0.6592771345624158</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -3800,7 +3802,7 @@
         <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>241.5891775064833</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>274.2838073416025</v>
@@ -3825,10 +3827,10 @@
         <v>0</v>
       </c>
       <c r="E42" t="n">
-        <v>119.684132829794</v>
+        <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G42" t="n">
         <v>0</v>
@@ -3864,7 +3866,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -3873,7 +3875,7 @@
         <v>0</v>
       </c>
       <c r="U42" t="n">
-        <v>224.6571770672012</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V42" t="n">
         <v>231.9087310396551</v>
@@ -3882,10 +3884,10 @@
         <v>249.98934675</v>
       </c>
       <c r="X42" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y42" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="43">
@@ -3946,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
+        <v>0</v>
+      </c>
+      <c r="T43" t="n">
+        <v>0</v>
+      </c>
+      <c r="U43" t="n">
+        <v>0</v>
+      </c>
+      <c r="V43" t="n">
         <v>178.9131266416084</v>
-      </c>
-      <c r="T43" t="n">
-        <v>0</v>
-      </c>
-      <c r="U43" t="n">
-        <v>0</v>
-      </c>
-      <c r="V43" t="n">
-        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -3974,13 +3976,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="C44" t="n">
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>274.2838073416025</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
         <v>0</v>
@@ -3989,61 +3991,61 @@
         <v>274.2838073416025</v>
       </c>
       <c r="G44" t="n">
+        <v>240.9299003719209</v>
+      </c>
+      <c r="H44" t="n">
+        <v>0</v>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0.6592771345624158</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>0</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>0</v>
+      </c>
+      <c r="O44" t="n">
+        <v>0</v>
+      </c>
+      <c r="P44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
+      <c r="R44" t="n">
+        <v>0</v>
+      </c>
+      <c r="S44" t="n">
+        <v>0</v>
+      </c>
+      <c r="T44" t="n">
+        <v>0</v>
+      </c>
+      <c r="U44" t="n">
+        <v>0</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="n">
+        <v>0</v>
+      </c>
+      <c r="X44" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y44" t="n">
         <v>274.2838073416025</v>
-      </c>
-      <c r="H44" t="n">
-        <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
-      </c>
-      <c r="L44" t="n">
-        <v>0</v>
-      </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="n">
-        <v>0</v>
-      </c>
-      <c r="O44" t="n">
-        <v>0</v>
-      </c>
-      <c r="P44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q44" t="n">
-        <v>0</v>
-      </c>
-      <c r="R44" t="n">
-        <v>0</v>
-      </c>
-      <c r="S44" t="n">
-        <v>0</v>
-      </c>
-      <c r="T44" t="n">
-        <v>0</v>
-      </c>
-      <c r="U44" t="n">
-        <v>0</v>
-      </c>
-      <c r="V44" t="n">
-        <v>0</v>
-      </c>
-      <c r="W44" t="n">
-        <v>0</v>
-      </c>
-      <c r="X44" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y44" t="n">
-        <v>241.5891775064833</v>
       </c>
     </row>
     <row r="45">
@@ -4053,22 +4055,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>165.3721256103448</v>
+        <v>0</v>
       </c>
       <c r="C45" t="n">
-        <v>171.025583927401</v>
+        <v>0</v>
       </c>
       <c r="D45" t="n">
-        <v>146.1124235746456</v>
+        <v>0</v>
       </c>
       <c r="E45" t="n">
-        <v>156.0334337071738</v>
+        <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H45" t="n">
         <v>0</v>
@@ -4110,19 +4112,19 @@
         <v>0</v>
       </c>
       <c r="U45" t="n">
-        <v>0</v>
+        <v>174.4097407145716</v>
       </c>
       <c r="V45" t="n">
-        <v>0</v>
+        <v>231.9087310396551</v>
       </c>
       <c r="W45" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X45" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y45" t="n">
-        <v>146.3675904231339</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="46">
@@ -4147,7 +4149,7 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>167.8895889301081</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -4186,10 +4188,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>178.9131266416084</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>11.02353771150029</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -4304,13 +4306,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
       <c r="C2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
       <c r="D2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
       <c r="E2" t="n">
         <v>21.9427045873282</v>
@@ -4331,19 +4333,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K2" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L2" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M2" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N2" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O2" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P2" t="n">
         <v>1093.116282134284</v>
@@ -4355,25 +4357,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="T2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="U2" t="n">
-        <v>1097.13522936641</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="V2" t="n">
-        <v>853.1057571376389</v>
+        <v>889.1908336860672</v>
       </c>
       <c r="W2" t="n">
-        <v>576.0514062875353</v>
+        <v>612.1364828359636</v>
       </c>
       <c r="X2" t="n">
-        <v>298.9970554374318</v>
+        <v>335.0821319858601</v>
       </c>
       <c r="Y2" t="n">
-        <v>21.9427045873282</v>
+        <v>58.02778113575653</v>
       </c>
     </row>
     <row r="3">
@@ -4383,7 +4385,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>31.07160873301157</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C3" t="n">
         <v>21.9427045873282</v>
@@ -4407,22 +4409,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J3" t="n">
-        <v>21.9427045873282</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="K3" t="n">
-        <v>21.9427045873282</v>
+        <v>168.577974491964</v>
       </c>
       <c r="L3" t="n">
-        <v>21.9427045873282</v>
+        <v>416.655578933882</v>
       </c>
       <c r="M3" t="n">
-        <v>277.9660032696079</v>
+        <v>688.1965482020685</v>
       </c>
       <c r="N3" t="n">
-        <v>549.5069725377944</v>
+        <v>959.7375174702549</v>
       </c>
       <c r="O3" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P3" t="n">
         <v>1015.957061350112</v>
@@ -4431,28 +4433,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R3" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S3" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T3" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U3" t="n">
-        <v>1097.13522936641</v>
+        <v>403.5026004348891</v>
       </c>
       <c r="V3" t="n">
-        <v>862.8839858920107</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="W3" t="n">
-        <v>610.3694942253441</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X3" t="n">
-        <v>403.8425956309216</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y3" t="n">
-        <v>198.114159854572</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="4">
@@ -4462,31 +4464,31 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K4" t="n">
         <v>21.9427045873282</v>
@@ -4507,31 +4509,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q4" t="n">
-        <v>122.096671017389</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R4" t="n">
-        <v>36.86635076695784</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y4" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="5">
@@ -4541,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="C5" t="n">
-        <v>1060.403037812512</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="D5" t="n">
-        <v>1060.403037812512</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="E5" t="n">
-        <v>1060.403037812512</v>
+        <v>820.0808785163064</v>
       </c>
       <c r="F5" t="n">
-        <v>783.348686962408</v>
+        <v>784.014623461966</v>
       </c>
       <c r="G5" t="n">
-        <v>506.2943361123045</v>
+        <v>506.9602726118625</v>
       </c>
       <c r="H5" t="n">
-        <v>229.2399852622009</v>
+        <v>229.9059217617589</v>
       </c>
       <c r="I5" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J5" t="n">
         <v>21.9427045873282</v>
@@ -4580,7 +4582,7 @@
         <v>815.0204133003604</v>
       </c>
       <c r="O5" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P5" t="n">
         <v>1093.116282134284</v>
@@ -4610,7 +4612,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y5" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163064</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>981.2022424513852</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C6" t="n">
-        <v>808.4491273732024</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D6" t="n">
-        <v>660.8608207321463</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E6" t="n">
-        <v>503.251291735001</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F6" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G6" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H6" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I6" t="n">
         <v>21.9427045873282</v>
@@ -4647,19 +4649,19 @@
         <v>29.3360154338131</v>
       </c>
       <c r="K6" t="n">
-        <v>168.577974491964</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="L6" t="n">
-        <v>416.655578933882</v>
+        <v>29.3360154338131</v>
       </c>
       <c r="M6" t="n">
-        <v>688.1965482020685</v>
+        <v>300.8769847019996</v>
       </c>
       <c r="N6" t="n">
-        <v>959.7375174702549</v>
+        <v>572.4179539701861</v>
       </c>
       <c r="O6" t="n">
-        <v>1015.957061350112</v>
+        <v>840.2975729475068</v>
       </c>
       <c r="P6" t="n">
         <v>1015.957061350112</v>
@@ -4668,28 +4670,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R6" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S6" t="n">
-        <v>1097.13522936641</v>
+        <v>830.8154377838487</v>
       </c>
       <c r="T6" t="n">
-        <v>1097.13522936641</v>
+        <v>630.4290419169106</v>
       </c>
       <c r="U6" t="n">
-        <v>1097.13522936641</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="V6" t="n">
-        <v>1097.13522936641</v>
+        <v>480.1856320303444</v>
       </c>
       <c r="W6" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="X6" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y6" t="n">
-        <v>1097.13522936641</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4701,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I7" t="n">
-        <v>47.35137109662591</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J7" t="n">
-        <v>36.86635076695784</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K7" t="n">
         <v>21.9427045873282</v>
@@ -4744,31 +4746,31 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q7" t="n">
-        <v>202.6630345283467</v>
+        <v>197.0852779911487</v>
       </c>
       <c r="R7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="T7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y7" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="8">
@@ -4826,25 +4828,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R8" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S8" t="n">
-        <v>745.907174392252</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T8" t="n">
-        <v>553.0149984440422</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U8" t="n">
+        <v>1097.13522936641</v>
+      </c>
+      <c r="V8" t="n">
+        <v>853.1057571376389</v>
+      </c>
+      <c r="W8" t="n">
+        <v>576.0514062875353</v>
+      </c>
+      <c r="X8" t="n">
         <v>298.9970554374318</v>
-      </c>
-      <c r="V8" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="W8" t="n">
-        <v>21.9427045873282</v>
-      </c>
-      <c r="X8" t="n">
-        <v>21.9427045873282</v>
       </c>
       <c r="Y8" t="n">
         <v>21.9427045873282</v>
@@ -4857,7 +4859,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>930.0926782448495</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C9" t="n">
         <v>808.4491273732024</v>
@@ -4881,25 +4883,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J9" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K9" t="n">
-        <v>168.577974491964</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L9" t="n">
-        <v>416.655578933882</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="M9" t="n">
-        <v>688.1965482020685</v>
+        <v>432.7256329136656</v>
       </c>
       <c r="N9" t="n">
-        <v>898.564759531413</v>
+        <v>549.5069725377944</v>
       </c>
       <c r="O9" t="n">
-        <v>898.564759531413</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P9" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q9" t="n">
         <v>1097.13522936641</v>
@@ -4981,10 +4983,10 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q10" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R10" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="S10" t="n">
         <v>21.9427045873282</v>
@@ -5015,31 +5017,31 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="E11" t="n">
-        <v>21.9427045873282</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="F11" t="n">
-        <v>21.9427045873282</v>
+        <v>783.3486869624082</v>
       </c>
       <c r="G11" t="n">
-        <v>21.9427045873282</v>
+        <v>506.2943361123046</v>
       </c>
       <c r="H11" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I11" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J11" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K11" t="n">
         <v>143.241092649432</v>
@@ -5057,7 +5059,7 @@
         <v>984.9899813536998</v>
       </c>
       <c r="P11" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q11" t="n">
         <v>1097.13522936641</v>
@@ -5072,19 +5074,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U11" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V11" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W11" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X11" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y11" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="12">
@@ -5118,22 +5120,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J12" t="n">
-        <v>21.9427045873282</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K12" t="n">
-        <v>21.9427045873282</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L12" t="n">
-        <v>270.0203090292462</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M12" t="n">
-        <v>277.9660032696079</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N12" t="n">
-        <v>549.5069725377944</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="O12" t="n">
-        <v>817.386591515115</v>
+        <v>817.3865915151152</v>
       </c>
       <c r="P12" t="n">
         <v>1015.957061350112</v>
@@ -5182,28 +5184,28 @@
         <v>202.6630345283467</v>
       </c>
       <c r="E13" t="n">
-        <v>169.5780797487469</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I13" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J13" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695785</v>
       </c>
       <c r="K13" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L13" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M13" t="n">
         <v>108.7246574309869</v>
@@ -5252,22 +5254,22 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="C14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="D14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="E14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="F14" t="n">
-        <v>783.348686962408</v>
+        <v>783.3486869624082</v>
       </c>
       <c r="G14" t="n">
-        <v>506.2943361123045</v>
+        <v>506.2943361123046</v>
       </c>
       <c r="H14" t="n">
         <v>229.2399852622009</v>
@@ -5294,34 +5296,34 @@
         <v>984.9899813536998</v>
       </c>
       <c r="P14" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q14" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R14" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S14" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T14" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U14" t="n">
-        <v>953.8515700725947</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="W14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="X14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="Y14" t="n">
-        <v>953.8515700725947</v>
+        <v>1060.403037812512</v>
       </c>
     </row>
     <row r="15">
@@ -5331,46 +5333,46 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>471.8497508018332</v>
+        <v>981.2022424513852</v>
       </c>
       <c r="C15" t="n">
-        <v>299.0966357236504</v>
+        <v>808.4491273732024</v>
       </c>
       <c r="D15" t="n">
-        <v>151.5083290825943</v>
+        <v>660.8608207321463</v>
       </c>
       <c r="E15" t="n">
-        <v>21.9427045873282</v>
+        <v>503.251291735001</v>
       </c>
       <c r="F15" t="n">
-        <v>21.9427045873282</v>
+        <v>358.2955017516178</v>
       </c>
       <c r="G15" t="n">
-        <v>21.9427045873282</v>
+        <v>220.8983197263226</v>
       </c>
       <c r="H15" t="n">
-        <v>21.9427045873282</v>
+        <v>109.3200212191178</v>
       </c>
       <c r="I15" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J15" t="n">
-        <v>21.9427045873282</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K15" t="n">
-        <v>161.1846636454791</v>
+        <v>168.5779744919641</v>
       </c>
       <c r="L15" t="n">
-        <v>277.9660032696079</v>
+        <v>416.6555789338821</v>
       </c>
       <c r="M15" t="n">
-        <v>277.9660032696079</v>
+        <v>688.1965482020686</v>
       </c>
       <c r="N15" t="n">
-        <v>549.5069725377944</v>
+        <v>748.0774423727914</v>
       </c>
       <c r="O15" t="n">
-        <v>817.386591515115</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="P15" t="n">
         <v>1015.957061350112</v>
@@ -5394,13 +5396,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W15" t="n">
-        <v>844.6207376997432</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X15" t="n">
-        <v>844.6207376997432</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y15" t="n">
-        <v>638.8923019233937</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="16">
@@ -5410,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I16" t="n">
-        <v>21.9427045873282</v>
+        <v>126.6025577647144</v>
       </c>
       <c r="J16" t="n">
-        <v>21.9427045873282</v>
+        <v>36.86635076695785</v>
       </c>
       <c r="K16" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="L16" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M16" t="n">
         <v>108.7246574309869</v>
@@ -5501,37 +5503,37 @@
         <v>1060.403037812512</v>
       </c>
       <c r="F17" t="n">
-        <v>783.348686962408</v>
+        <v>783.3486869624082</v>
       </c>
       <c r="G17" t="n">
-        <v>506.2943361123045</v>
+        <v>506.2943361123046</v>
       </c>
       <c r="H17" t="n">
         <v>229.2399852622009</v>
       </c>
       <c r="I17" t="n">
-        <v>21.9427045873282</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="J17" t="n">
-        <v>21.94270458732809</v>
+        <v>21.94270458732819</v>
       </c>
       <c r="K17" t="n">
-        <v>143.2410926494319</v>
+        <v>143.241092649432</v>
       </c>
       <c r="L17" t="n">
-        <v>345.6915471007954</v>
+        <v>345.6915471007955</v>
       </c>
       <c r="M17" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N17" t="n">
-        <v>815.0204133003602</v>
+        <v>815.0204133003604</v>
       </c>
       <c r="O17" t="n">
-        <v>984.9899813536997</v>
+        <v>984.9899813536998</v>
       </c>
       <c r="P17" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q17" t="n">
         <v>1097.13522936641</v>
@@ -5601,13 +5603,13 @@
         <v>409.2622680873972</v>
       </c>
       <c r="M18" t="n">
-        <v>630.6851405540922</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="N18" t="n">
-        <v>630.6851405540922</v>
+        <v>680.8032373555836</v>
       </c>
       <c r="O18" t="n">
-        <v>898.564759531413</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P18" t="n">
         <v>1097.13522936641</v>
@@ -5616,28 +5618,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y18" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="19">
@@ -5677,7 +5679,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L19" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M19" t="n">
         <v>108.7246574309869</v>
@@ -5692,13 +5694,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="Q19" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="R19" t="n">
-        <v>202.6630345283467</v>
+        <v>122.096671017389</v>
       </c>
       <c r="S19" t="n">
-        <v>21.9427045873282</v>
+        <v>122.096671017389</v>
       </c>
       <c r="T19" t="n">
         <v>21.9427045873282</v>
@@ -5726,25 +5728,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="C20" t="n">
-        <v>298.9970554374318</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="D20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="E20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="F20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="G20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="H20" t="n">
-        <v>21.9427045873282</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="I20" t="n">
         <v>21.9427045873282</v>
@@ -5780,22 +5782,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T20" t="n">
-        <v>871.9179392690156</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U20" t="n">
-        <v>871.9179392690156</v>
+        <v>1060.403037812512</v>
       </c>
       <c r="V20" t="n">
-        <v>871.9179392690156</v>
+        <v>783.3486869624082</v>
       </c>
       <c r="W20" t="n">
-        <v>871.9179392690156</v>
+        <v>506.2943361123046</v>
       </c>
       <c r="X20" t="n">
-        <v>594.8635884189121</v>
+        <v>229.2399852622009</v>
       </c>
       <c r="Y20" t="n">
-        <v>317.8092375688085</v>
+        <v>229.2399852622009</v>
       </c>
     </row>
     <row r="21">
@@ -5805,16 +5807,16 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>287.7915580351497</v>
+        <v>435.5711485430515</v>
       </c>
       <c r="C21" t="n">
-        <v>159.3398866126235</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="D21" t="n">
-        <v>159.3398866126235</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="E21" t="n">
-        <v>159.3398866126235</v>
+        <v>304.2956765960066</v>
       </c>
       <c r="F21" t="n">
         <v>159.3398866126235</v>
@@ -5829,22 +5831,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J21" t="n">
-        <v>21.9427045873282</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K21" t="n">
-        <v>21.9427045873282</v>
+        <v>38.0960674107985</v>
       </c>
       <c r="L21" t="n">
-        <v>270.0203090292462</v>
+        <v>286.1736718527165</v>
       </c>
       <c r="M21" t="n">
-        <v>359.1441712859057</v>
+        <v>557.714641120903</v>
       </c>
       <c r="N21" t="n">
-        <v>630.6851405540922</v>
+        <v>829.2556103890895</v>
       </c>
       <c r="O21" t="n">
-        <v>898.564759531413</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="P21" t="n">
         <v>1097.13522936641</v>
@@ -5853,28 +5855,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S21" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T21" t="n">
-        <v>1001.483734658237</v>
+        <v>896.7488334994721</v>
       </c>
       <c r="U21" t="n">
-        <v>774.5572931762155</v>
+        <v>669.8223920174506</v>
       </c>
       <c r="V21" t="n">
-        <v>540.3060497018164</v>
+        <v>435.5711485430515</v>
       </c>
       <c r="W21" t="n">
-        <v>287.7915580351497</v>
+        <v>435.5711485430515</v>
       </c>
       <c r="X21" t="n">
-        <v>287.7915580351497</v>
+        <v>435.5711485430515</v>
       </c>
       <c r="Y21" t="n">
-        <v>287.7915580351497</v>
+        <v>435.5711485430515</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="C22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="D22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="E22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L22" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M22" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N22" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O22" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U22" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V22" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="W22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="X22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="Y22" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
     </row>
     <row r="23">
@@ -5963,28 +5965,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C23" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E23" t="n">
-        <v>21.9427045873282</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I23" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J23" t="n">
         <v>21.9427045873282</v>
@@ -5999,13 +6001,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N23" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O23" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P23" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q23" t="n">
         <v>1097.13522936641</v>
@@ -6023,16 +6025,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="V23" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W23" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y23" t="n">
-        <v>298.9970554374318</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="24">
@@ -6042,7 +6044,7 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>146.7826511327511</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C24" t="n">
         <v>21.9427045873282</v>
@@ -6069,19 +6071,19 @@
         <v>21.9427045873282</v>
       </c>
       <c r="K24" t="n">
-        <v>21.9427045873282</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L24" t="n">
-        <v>270.0203090292462</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M24" t="n">
-        <v>541.5612782974326</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="N24" t="n">
-        <v>630.6851405540922</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O24" t="n">
-        <v>898.564759531413</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P24" t="n">
         <v>1097.13522936641</v>
@@ -6093,25 +6095,25 @@
         <v>1097.13522936641</v>
       </c>
       <c r="S24" t="n">
-        <v>926.4669324920217</v>
+        <v>936.0212770773536</v>
       </c>
       <c r="T24" t="n">
-        <v>726.0805366250836</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U24" t="n">
-        <v>726.0805366250836</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V24" t="n">
-        <v>726.0805366250836</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W24" t="n">
-        <v>726.0805366250836</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X24" t="n">
-        <v>519.5536380306611</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y24" t="n">
-        <v>313.8252022543115</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="25">
@@ -6121,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="F25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="G25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="I25" t="n">
-        <v>21.9427045873282</v>
+        <v>47.35137109662591</v>
       </c>
       <c r="J25" t="n">
         <v>21.9427045873282</v>
@@ -6151,7 +6153,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L25" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M25" t="n">
         <v>108.7246574309869</v>
@@ -6184,13 +6186,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="W25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y25" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="26">
@@ -6200,28 +6202,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="C26" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="D26" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="E26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="F26" t="n">
-        <v>21.9427045873282</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="G26" t="n">
-        <v>21.9427045873282</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="H26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I26" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J26" t="n">
         <v>21.9427045873282</v>
@@ -6248,28 +6250,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="S26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="T26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="U26" t="n">
-        <v>1097.13522936641</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="V26" t="n">
-        <v>853.1057571376389</v>
+        <v>953.8515700725947</v>
       </c>
       <c r="W26" t="n">
-        <v>576.0514062875353</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="X26" t="n">
-        <v>576.0514062875353</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="Y26" t="n">
-        <v>576.0514062875353</v>
+        <v>853.7716936371969</v>
       </c>
     </row>
     <row r="27">
@@ -6279,40 +6281,40 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>634.6583206713346</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="C27" t="n">
-        <v>461.9052055931519</v>
+        <v>367.5529346236336</v>
       </c>
       <c r="D27" t="n">
-        <v>461.9052055931519</v>
+        <v>367.5529346236336</v>
       </c>
       <c r="E27" t="n">
-        <v>304.2956765960066</v>
+        <v>209.9434056264883</v>
       </c>
       <c r="F27" t="n">
-        <v>159.3398866126235</v>
+        <v>64.98761564310513</v>
       </c>
       <c r="G27" t="n">
-        <v>21.9427045873282</v>
+        <v>64.98761564310513</v>
       </c>
       <c r="H27" t="n">
-        <v>21.9427045873282</v>
+        <v>64.98761564310513</v>
       </c>
       <c r="I27" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J27" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K27" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L27" t="n">
-        <v>416.655578933882</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="M27" t="n">
-        <v>549.5069725377944</v>
+        <v>277.9660032696079</v>
       </c>
       <c r="N27" t="n">
         <v>549.5069725377944</v>
@@ -6327,28 +6329,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="S27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="T27" t="n">
-        <v>1097.13522936641</v>
+        <v>1001.483734658237</v>
       </c>
       <c r="U27" t="n">
-        <v>870.2087878843885</v>
+        <v>774.5572931762155</v>
       </c>
       <c r="V27" t="n">
-        <v>870.2087878843885</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="W27" t="n">
-        <v>870.2087878843885</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="X27" t="n">
-        <v>801.7008717928951</v>
+        <v>540.3060497018164</v>
       </c>
       <c r="Y27" t="n">
-        <v>801.7008717928951</v>
+        <v>540.3060497018164</v>
       </c>
     </row>
     <row r="28">
@@ -6358,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="C28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="D28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="E28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="F28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="G28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="I28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="J28" t="n">
         <v>21.9427045873282</v>
@@ -6412,22 +6414,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U28" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="W28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="X28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
       <c r="Y28" t="n">
-        <v>21.9427045873282</v>
+        <v>111.6789115850847</v>
       </c>
     </row>
     <row r="29">
@@ -6437,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>843.1172863597994</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="C29" t="n">
-        <v>576.7173427870933</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="D29" t="n">
         <v>299.6629919369898</v>
@@ -6470,7 +6472,7 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M29" t="n">
-        <v>586.1689795623907</v>
+        <v>586.1689795623909</v>
       </c>
       <c r="N29" t="n">
         <v>815.0204133003602</v>
@@ -6494,19 +6496,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U29" t="n">
-        <v>843.1172863597994</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V29" t="n">
-        <v>843.1172863597994</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W29" t="n">
-        <v>843.1172863597994</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X29" t="n">
-        <v>843.1172863597994</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="Y29" t="n">
-        <v>843.1172863597994</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="30">
@@ -6516,13 +6518,13 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>352.3053486626563</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D30" t="n">
-        <v>179.5522335844735</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E30" t="n">
         <v>21.9427045873282</v>
@@ -6540,52 +6542,52 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J30" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K30" t="n">
-        <v>38.09606741079833</v>
+        <v>161.1846636454791</v>
       </c>
       <c r="L30" t="n">
-        <v>286.1736718527163</v>
+        <v>409.2622680873972</v>
       </c>
       <c r="M30" t="n">
-        <v>557.7146411209028</v>
+        <v>545.8456222469285</v>
       </c>
       <c r="N30" t="n">
-        <v>829.2556103890893</v>
+        <v>817.386591515115</v>
       </c>
       <c r="O30" t="n">
-        <v>1097.13522936641</v>
+        <v>817.386591515115</v>
       </c>
       <c r="P30" t="n">
-        <v>1097.13522936641</v>
+        <v>1015.957061350112</v>
       </c>
       <c r="Q30" t="n">
         <v>1097.13522936641</v>
       </c>
       <c r="R30" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S30" t="n">
-        <v>1001.483734658237</v>
+        <v>936.0212770773536</v>
       </c>
       <c r="T30" t="n">
-        <v>1001.483734658237</v>
+        <v>735.6348812104155</v>
       </c>
       <c r="U30" t="n">
-        <v>1001.483734658237</v>
+        <v>508.7084397283941</v>
       </c>
       <c r="V30" t="n">
-        <v>1001.483734658237</v>
+        <v>274.4571962539949</v>
       </c>
       <c r="W30" t="n">
-        <v>931.6032341549889</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X30" t="n">
-        <v>725.0763355605663</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y30" t="n">
-        <v>519.3478997842168</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="31">
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="C31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="D31" t="n">
-        <v>916.4148994253914</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="E31" t="n">
-        <v>916.4148994253914</v>
+        <v>54.20381819178192</v>
       </c>
       <c r="F31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="J31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K31" t="n">
-        <v>916.4148994253914</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L31" t="n">
-        <v>953.5014183521106</v>
+        <v>59.02922351404739</v>
       </c>
       <c r="M31" t="n">
-        <v>1003.19685226905</v>
+        <v>108.7246574309869</v>
       </c>
       <c r="N31" t="n">
-        <v>1056.851901737042</v>
+        <v>162.3797068989784</v>
       </c>
       <c r="O31" t="n">
-        <v>1091.074427686713</v>
+        <v>196.6022328486497</v>
       </c>
       <c r="P31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Q31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="R31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="S31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T31" t="n">
-        <v>1097.13522936641</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="W31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="X31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="Y31" t="n">
-        <v>1085.44172056802</v>
+        <v>202.6630345283467</v>
       </c>
     </row>
     <row r="32">
@@ -6674,34 +6676,34 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="C32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="D32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="E32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="F32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="G32" t="n">
-        <v>298.9970554374318</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="H32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="I32" t="n">
-        <v>21.9427045873282</v>
+        <v>22.60864108688619</v>
       </c>
       <c r="J32" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K32" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L32" t="n">
         <v>345.6915471007955</v>
@@ -6731,19 +6733,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U32" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V32" t="n">
-        <v>853.1057571376389</v>
+        <v>853.7716936371969</v>
       </c>
       <c r="W32" t="n">
-        <v>576.0514062875353</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="X32" t="n">
-        <v>298.9970554374318</v>
+        <v>576.7173427870933</v>
       </c>
       <c r="Y32" t="n">
-        <v>298.9970554374318</v>
+        <v>299.6629919369898</v>
       </c>
     </row>
     <row r="33">
@@ -6753,19 +6755,19 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="C33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="D33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="E33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="F33" t="n">
-        <v>21.9427045873282</v>
+        <v>159.3398866126235</v>
       </c>
       <c r="G33" t="n">
         <v>21.9427045873282</v>
@@ -6777,25 +6779,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K33" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L33" t="n">
-        <v>204.9955038364183</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M33" t="n">
-        <v>476.5364731046047</v>
+        <v>541.5612782974326</v>
       </c>
       <c r="N33" t="n">
-        <v>748.0774423727912</v>
+        <v>630.6851405540922</v>
       </c>
       <c r="O33" t="n">
-        <v>1015.957061350112</v>
+        <v>898.564759531413</v>
       </c>
       <c r="P33" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q33" t="n">
         <v>1097.13522936641</v>
@@ -6807,22 +6809,22 @@
         <v>1097.13522936641</v>
       </c>
       <c r="T33" t="n">
-        <v>896.7488334994719</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U33" t="n">
-        <v>669.8223920174504</v>
+        <v>870.2087878843885</v>
       </c>
       <c r="V33" t="n">
-        <v>435.5711485430513</v>
+        <v>635.9575444099894</v>
       </c>
       <c r="W33" t="n">
-        <v>183.0566568763846</v>
+        <v>383.4430527433227</v>
       </c>
       <c r="X33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
       <c r="Y33" t="n">
-        <v>21.9427045873282</v>
+        <v>176.9161541489002</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="C34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="D34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="E34" t="n">
-        <v>169.5780797487469</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="F34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="G34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="I34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="J34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="K34" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="L34" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521106</v>
       </c>
       <c r="M34" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N34" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O34" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V34" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="X34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
       <c r="Y34" t="n">
-        <v>202.6630345283467</v>
+        <v>916.4148994253914</v>
       </c>
     </row>
     <row r="35">
@@ -6911,28 +6913,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>576.0514062875353</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C35" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D35" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E35" t="n">
-        <v>576.0514062875353</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="F35" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I35" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J35" t="n">
         <v>21.9427045873282</v>
@@ -6944,16 +6946,16 @@
         <v>345.6915471007955</v>
       </c>
       <c r="M35" t="n">
-        <v>586.1689795623909</v>
+        <v>586.1689795623911</v>
       </c>
       <c r="N35" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003606</v>
       </c>
       <c r="O35" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P35" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q35" t="n">
         <v>1097.13522936641</v>
@@ -6980,7 +6982,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y35" t="n">
-        <v>820.0808785163064</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="36">
@@ -7014,25 +7016,25 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K36" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L36" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M36" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N36" t="n">
-        <v>748.0774423727912</v>
+        <v>813.1022475656193</v>
       </c>
       <c r="O36" t="n">
-        <v>1015.957061350112</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P36" t="n">
-        <v>1015.957061350112</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q36" t="n">
         <v>1097.13522936641</v>
@@ -7047,16 +7049,16 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U36" t="n">
-        <v>870.2087878843885</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V36" t="n">
-        <v>635.9575444099894</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W36" t="n">
-        <v>383.4430527433227</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X36" t="n">
-        <v>176.9161541489002</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y36" t="n">
         <v>21.9427045873282</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="C37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="D37" t="n">
-        <v>21.9427045873282</v>
+        <v>946.624556119421</v>
       </c>
       <c r="E37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="F37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="G37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="I37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="J37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="K37" t="n">
-        <v>21.9427045873282</v>
+        <v>916.4148994253916</v>
       </c>
       <c r="L37" t="n">
-        <v>59.02922351404739</v>
+        <v>953.5014183521108</v>
       </c>
       <c r="M37" t="n">
-        <v>108.7246574309869</v>
+        <v>1003.19685226905</v>
       </c>
       <c r="N37" t="n">
-        <v>162.3797068989784</v>
+        <v>1056.851901737042</v>
       </c>
       <c r="O37" t="n">
-        <v>196.6022328486497</v>
+        <v>1091.074427686713</v>
       </c>
       <c r="P37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Q37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="R37" t="n">
-        <v>202.6630345283467</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="V37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="W37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="Y37" t="n">
-        <v>21.9427045873282</v>
+        <v>1097.13522936641</v>
       </c>
     </row>
     <row r="38">
@@ -7148,34 +7150,34 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C38" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="D38" t="n">
-        <v>1097.13522936641</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="E38" t="n">
-        <v>820.0808785163064</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F38" t="n">
-        <v>543.0265276662028</v>
+        <v>299.6629919369898</v>
       </c>
       <c r="G38" t="n">
-        <v>265.9721768160992</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I38" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J38" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="K38" t="n">
-        <v>143.241092649432</v>
+        <v>143.2410926494319</v>
       </c>
       <c r="L38" t="n">
         <v>345.6915471007955</v>
@@ -7184,13 +7186,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N38" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O38" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813537</v>
       </c>
       <c r="P38" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q38" t="n">
         <v>1097.13522936641</v>
@@ -7227,46 +7229,46 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C39" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D39" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E39" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F39" t="n">
-        <v>358.2955017516178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G39" t="n">
-        <v>220.8983197263226</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="H39" t="n">
-        <v>109.3200212191178</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="I39" t="n">
         <v>21.9427045873282</v>
       </c>
       <c r="J39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K39" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L39" t="n">
-        <v>277.4136198757311</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M39" t="n">
-        <v>548.9545891439176</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N39" t="n">
-        <v>820.4955584121041</v>
+        <v>813.1022475656193</v>
       </c>
       <c r="O39" t="n">
-        <v>1088.375177389425</v>
+        <v>1080.98186654294</v>
       </c>
       <c r="P39" t="n">
         <v>1097.13522936641</v>
@@ -7275,28 +7277,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R39" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S39" t="n">
-        <v>830.8154377838487</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T39" t="n">
-        <v>630.4290419169106</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U39" t="n">
-        <v>403.5026004348891</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V39" t="n">
-        <v>403.5026004348891</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W39" t="n">
-        <v>403.5026004348891</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X39" t="n">
-        <v>403.5026004348891</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y39" t="n">
-        <v>403.5026004348891</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="40">
@@ -7306,10 +7308,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C40" t="n">
-        <v>33.63621338571812</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D40" t="n">
         <v>21.9427045873282</v>
@@ -7336,7 +7338,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L40" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M40" t="n">
         <v>108.7246574309869</v>
@@ -7360,22 +7362,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="U40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="V40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="W40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="X40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="Y40" t="n">
-        <v>202.6630345283467</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="41">
@@ -7385,28 +7387,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>298.9970554374318</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="C41" t="n">
-        <v>298.9970554374318</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D41" t="n">
-        <v>298.9970554374318</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="E41" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="F41" t="n">
-        <v>298.9970554374318</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="G41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I41" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J41" t="n">
         <v>21.9427045873282</v>
@@ -7421,13 +7423,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N41" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O41" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P41" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q41" t="n">
         <v>1097.13522936641</v>
@@ -7448,13 +7450,13 @@
         <v>1097.13522936641</v>
       </c>
       <c r="W41" t="n">
-        <v>853.1057571376389</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="X41" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163065</v>
       </c>
       <c r="Y41" t="n">
-        <v>576.0514062875353</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="42">
@@ -7464,16 +7466,16 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>287.7915580351497</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C42" t="n">
-        <v>287.7915580351497</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D42" t="n">
-        <v>287.7915580351497</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E42" t="n">
-        <v>166.8984945707113</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F42" t="n">
         <v>21.9427045873282</v>
@@ -7488,22 +7490,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J42" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="K42" t="n">
-        <v>29.3360154338131</v>
+        <v>29.33601543381311</v>
       </c>
       <c r="L42" t="n">
         <v>277.4136198757311</v>
       </c>
       <c r="M42" t="n">
-        <v>548.9545891439176</v>
+        <v>548.9545891439177</v>
       </c>
       <c r="N42" t="n">
-        <v>820.4955584121041</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O42" t="n">
-        <v>1088.375177389425</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P42" t="n">
         <v>1097.13522936641</v>
@@ -7512,28 +7514,28 @@
         <v>1097.13522936641</v>
       </c>
       <c r="R42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="S42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="T42" t="n">
-        <v>1001.483734658237</v>
+        <v>1097.13522936641</v>
       </c>
       <c r="U42" t="n">
-        <v>774.5572931762155</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V42" t="n">
-        <v>540.3060497018164</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W42" t="n">
-        <v>287.7915580351497</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X42" t="n">
-        <v>287.7915580351497</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y42" t="n">
-        <v>287.7915580351497</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="43">
@@ -7573,7 +7575,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L43" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M43" t="n">
         <v>108.7246574309869</v>
@@ -7594,13 +7596,13 @@
         <v>202.6630345283467</v>
       </c>
       <c r="S43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="T43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U43" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="V43" t="n">
         <v>21.9427045873282</v>
@@ -7622,28 +7624,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>853.1057571376389</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="C44" t="n">
-        <v>853.1057571376389</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="D44" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="E44" t="n">
-        <v>576.0514062875353</v>
+        <v>543.0265276662028</v>
       </c>
       <c r="F44" t="n">
-        <v>298.9970554374318</v>
+        <v>265.9721768160992</v>
       </c>
       <c r="G44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="H44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="I44" t="n">
-        <v>21.9427045873282</v>
+        <v>22.6086410868862</v>
       </c>
       <c r="J44" t="n">
         <v>21.9427045873282</v>
@@ -7658,13 +7660,13 @@
         <v>586.1689795623909</v>
       </c>
       <c r="N44" t="n">
-        <v>815.0204133003604</v>
+        <v>815.0204133003605</v>
       </c>
       <c r="O44" t="n">
-        <v>984.9899813536998</v>
+        <v>984.9899813536999</v>
       </c>
       <c r="P44" t="n">
-        <v>1093.116282134284</v>
+        <v>1093.116282134285</v>
       </c>
       <c r="Q44" t="n">
         <v>1097.13522936641</v>
@@ -7691,7 +7693,7 @@
         <v>1097.13522936641</v>
       </c>
       <c r="Y44" t="n">
-        <v>853.1057571376389</v>
+        <v>820.0808785163065</v>
       </c>
     </row>
     <row r="45">
@@ -7701,19 +7703,19 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>782.246627312391</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="C45" t="n">
-        <v>609.4935122342081</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="D45" t="n">
-        <v>461.9052055931519</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="E45" t="n">
-        <v>304.2956765960066</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="F45" t="n">
-        <v>159.3398866126235</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="G45" t="n">
         <v>21.9427045873282</v>
@@ -7725,22 +7727,22 @@
         <v>21.9427045873282</v>
       </c>
       <c r="J45" t="n">
-        <v>29.3360154338131</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="K45" t="n">
-        <v>168.577974491964</v>
+        <v>21.9427045873282</v>
       </c>
       <c r="L45" t="n">
-        <v>286.1736718527163</v>
+        <v>270.0203090292462</v>
       </c>
       <c r="M45" t="n">
-        <v>557.7146411209028</v>
+        <v>541.5612782974328</v>
       </c>
       <c r="N45" t="n">
-        <v>829.2556103890893</v>
+        <v>630.6851405540924</v>
       </c>
       <c r="O45" t="n">
-        <v>1097.13522936641</v>
+        <v>898.5647595314132</v>
       </c>
       <c r="P45" t="n">
         <v>1097.13522936641</v>
@@ -7758,19 +7760,19 @@
         <v>1097.13522936641</v>
       </c>
       <c r="U45" t="n">
-        <v>1097.13522936641</v>
+        <v>920.9637740991661</v>
       </c>
       <c r="V45" t="n">
-        <v>1097.13522936641</v>
+        <v>686.7125306247669</v>
       </c>
       <c r="W45" t="n">
-        <v>1097.13522936641</v>
+        <v>434.1980389581003</v>
       </c>
       <c r="X45" t="n">
-        <v>1097.13522936641</v>
+        <v>227.6711403636777</v>
       </c>
       <c r="Y45" t="n">
-        <v>949.2891784339514</v>
+        <v>21.9427045873282</v>
       </c>
     </row>
     <row r="46">
@@ -7780,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="C46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="D46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="E46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="F46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="G46" t="n">
         <v>21.9427045873282</v>
@@ -7810,7 +7812,7 @@
         <v>21.9427045873282</v>
       </c>
       <c r="L46" t="n">
-        <v>59.02922351404739</v>
+        <v>59.0292235140474</v>
       </c>
       <c r="M46" t="n">
         <v>108.7246574309869</v>
@@ -7834,22 +7836,22 @@
         <v>202.6630345283467</v>
       </c>
       <c r="T46" t="n">
-        <v>21.9427045873282</v>
+        <v>202.6630345283467</v>
       </c>
       <c r="U46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="V46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="W46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="X46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
       <c r="Y46" t="n">
-        <v>21.9427045873282</v>
+        <v>191.5281479510737</v>
       </c>
     </row>
   </sheetData>
@@ -7979,7 +7981,7 @@
         <v>175.8604797789567</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1112290740112</v>
+        <v>337.1112290740114</v>
       </c>
       <c r="L2" t="n">
         <v>434.3676631324684</v>
@@ -8055,25 +8057,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J3" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K3" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L3" t="n">
-        <v>135.0905202853774</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M3" t="n">
-        <v>397.1900756823312</v>
+        <v>412.8644904155703</v>
       </c>
       <c r="N3" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O3" t="n">
-        <v>409.6168120477987</v>
+        <v>195.818756393795</v>
       </c>
       <c r="P3" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q3" t="n">
         <v>218.4803792452831</v>
@@ -8228,7 +8230,7 @@
         <v>454.8408013884635</v>
       </c>
       <c r="O5" t="n">
-        <v>396.0321885132551</v>
+        <v>396.0321885132552</v>
       </c>
       <c r="P5" t="n">
         <v>334.6706564983419</v>
@@ -8295,10 +8297,10 @@
         <v>131.1346767540252</v>
       </c>
       <c r="K6" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L6" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M6" t="n">
         <v>412.8644904155703</v>
@@ -8307,10 +8309,10 @@
         <v>402.3419766228525</v>
       </c>
       <c r="O6" t="n">
-        <v>195.818756393795</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P6" t="n">
-        <v>130.625047228972</v>
+        <v>308.0588738982702</v>
       </c>
       <c r="Q6" t="n">
         <v>218.4803792452831</v>
@@ -8529,28 +8531,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J9" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K9" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L9" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M9" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N9" t="n">
-        <v>340.5513120381636</v>
+        <v>246.0191183965316</v>
       </c>
       <c r="O9" t="n">
-        <v>139.0313383333333</v>
+        <v>409.6168120477987</v>
       </c>
       <c r="P9" t="n">
         <v>331.2012793855346</v>
       </c>
       <c r="Q9" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R9" t="n">
         <v>47.34253660377365</v>
@@ -8708,7 +8710,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q11" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R11" t="n">
         <v>68.34507666790174</v>
@@ -8766,22 +8768,22 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J12" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K12" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L12" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M12" t="n">
-        <v>146.606636852111</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N12" t="n">
-        <v>402.3419766228525</v>
+        <v>258.5531625267516</v>
       </c>
       <c r="O12" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P12" t="n">
         <v>331.2012793855346</v>
@@ -8942,7 +8944,7 @@
         <v>396.0321885132552</v>
       </c>
       <c r="P14" t="n">
-        <v>334.6706564983419</v>
+        <v>334.6706564983421</v>
       </c>
       <c r="Q14" t="n">
         <v>220.8075902863009</v>
@@ -9003,25 +9005,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J15" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K15" t="n">
         <v>275.0438464930818</v>
       </c>
       <c r="L15" t="n">
-        <v>253.0514694006589</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M15" t="n">
-        <v>138.5806830739679</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N15" t="n">
-        <v>402.3419766228525</v>
+        <v>188.5439209688488</v>
       </c>
       <c r="O15" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P15" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q15" t="n">
         <v>218.4803792452831</v>
@@ -9249,13 +9251,13 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M18" t="n">
-        <v>362.2401502120437</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N18" t="n">
         <v>128.05816928125</v>
       </c>
       <c r="O18" t="n">
-        <v>409.6168120477987</v>
+        <v>358.9924718442722</v>
       </c>
       <c r="P18" t="n">
         <v>331.2012793855346</v>
@@ -9419,7 +9421,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q20" t="n">
-        <v>220.8075902863009</v>
+        <v>220.8075902863012</v>
       </c>
       <c r="R20" t="n">
         <v>68.34507666790174</v>
@@ -9477,16 +9479,16 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J21" t="n">
-        <v>123.666686</v>
+        <v>131.1346767540252</v>
       </c>
       <c r="K21" t="n">
-        <v>134.395403</v>
+        <v>143.2439403504903</v>
       </c>
       <c r="L21" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M21" t="n">
-        <v>228.6047863635229</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N21" t="n">
         <v>402.3419766228525</v>
@@ -9495,7 +9497,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P21" t="n">
-        <v>331.2012793855346</v>
+        <v>130.625047228972</v>
       </c>
       <c r="Q21" t="n">
         <v>136.482229733871</v>
@@ -9717,16 +9719,16 @@
         <v>123.666686</v>
       </c>
       <c r="K24" t="n">
-        <v>134.395403</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L24" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M24" t="n">
-        <v>412.8644904155703</v>
+        <v>362.2401502120439</v>
       </c>
       <c r="N24" t="n">
-        <v>218.0822725708051</v>
+        <v>128.05816928125</v>
       </c>
       <c r="O24" t="n">
         <v>409.6168120477987</v>
@@ -9951,19 +9953,19 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J27" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K27" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L27" t="n">
-        <v>385.6739591155975</v>
+        <v>135.0905202853774</v>
       </c>
       <c r="M27" t="n">
-        <v>272.7740099466066</v>
+        <v>397.1900756823312</v>
       </c>
       <c r="N27" t="n">
-        <v>128.05816928125</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O27" t="n">
         <v>409.6168120477987</v>
@@ -10118,7 +10120,7 @@
         <v>434.3676631324684</v>
       </c>
       <c r="M29" t="n">
-        <v>467.4940748325457</v>
+        <v>467.4940748325458</v>
       </c>
       <c r="N29" t="n">
         <v>454.8408013884635</v>
@@ -10188,28 +10190,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J30" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K30" t="n">
-        <v>143.2439403504901</v>
+        <v>275.0438464930818</v>
       </c>
       <c r="L30" t="n">
         <v>385.6739591155975</v>
       </c>
       <c r="M30" t="n">
-        <v>412.8644904155703</v>
+        <v>276.5436670734945</v>
       </c>
       <c r="N30" t="n">
         <v>402.3419766228525</v>
       </c>
       <c r="O30" t="n">
-        <v>409.6168120477987</v>
+        <v>139.0313383333333</v>
       </c>
       <c r="P30" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q30" t="n">
-        <v>136.482229733871</v>
+        <v>218.4803792452831</v>
       </c>
       <c r="R30" t="n">
         <v>47.34253660377365</v>
@@ -10425,28 +10427,28 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J33" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K33" t="n">
         <v>134.395403</v>
       </c>
       <c r="L33" t="n">
-        <v>312.5243469546755</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M33" t="n">
         <v>412.8644904155703</v>
       </c>
       <c r="N33" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708051</v>
       </c>
       <c r="O33" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P33" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q33" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R33" t="n">
         <v>47.34253660377365</v>
@@ -10604,7 +10606,7 @@
         <v>334.6706564983419</v>
       </c>
       <c r="Q35" t="n">
-        <v>220.807590286301</v>
+        <v>220.8075902863009</v>
       </c>
       <c r="R35" t="n">
         <v>68.34507666790174</v>
@@ -10662,7 +10664,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J36" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K36" t="n">
         <v>134.395403</v>
@@ -10671,19 +10673,19 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M36" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N36" t="n">
-        <v>329.1923644619304</v>
+        <v>402.3419766228525</v>
       </c>
       <c r="O36" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P36" t="n">
-        <v>130.625047228972</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q36" t="n">
-        <v>218.4803792452831</v>
+        <v>136.482229733871</v>
       </c>
       <c r="R36" t="n">
         <v>47.34253660377365</v>
@@ -10899,7 +10901,7 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J39" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K39" t="n">
         <v>134.395403</v>
@@ -10908,7 +10910,7 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M39" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N39" t="n">
         <v>402.3419766228525</v>
@@ -10917,7 +10919,7 @@
         <v>409.6168120477987</v>
       </c>
       <c r="P39" t="n">
-        <v>139.473584579462</v>
+        <v>146.9415753334873</v>
       </c>
       <c r="Q39" t="n">
         <v>136.482229733871</v>
@@ -11145,16 +11147,16 @@
         <v>385.6739591155975</v>
       </c>
       <c r="M42" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N42" t="n">
-        <v>402.3419766228525</v>
+        <v>210.61428181678</v>
       </c>
       <c r="O42" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P42" t="n">
-        <v>139.473584579462</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q42" t="n">
         <v>136.482229733871</v>
@@ -11373,25 +11375,25 @@
         <v>10.53077703452832</v>
       </c>
       <c r="J45" t="n">
-        <v>131.1346767540252</v>
+        <v>123.666686</v>
       </c>
       <c r="K45" t="n">
-        <v>275.0438464930818</v>
+        <v>134.395403</v>
       </c>
       <c r="L45" t="n">
-        <v>253.8740529730059</v>
+        <v>385.6739591155975</v>
       </c>
       <c r="M45" t="n">
-        <v>412.8644904155703</v>
+        <v>412.8644904155704</v>
       </c>
       <c r="N45" t="n">
-        <v>402.3419766228525</v>
+        <v>218.0822725708052</v>
       </c>
       <c r="O45" t="n">
         <v>409.6168120477987</v>
       </c>
       <c r="P45" t="n">
-        <v>130.625047228972</v>
+        <v>331.2012793855346</v>
       </c>
       <c r="Q45" t="n">
         <v>136.482229733871</v>
@@ -22553,7 +22555,7 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E2" t="n">
-        <v>383.1180357552875</v>
+        <v>347.3938099723434</v>
       </c>
       <c r="F2" t="n">
         <v>407.2938634805408</v>
@@ -22595,7 +22597,7 @@
         <v>141.8508227008771</v>
       </c>
       <c r="S2" t="n">
-        <v>205.8649517235392</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>222.9651171964204</v>
@@ -22604,7 +22606,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V2" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W2" t="n">
         <v>76.2463096589521</v>
@@ -22623,10 +22625,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C3" t="n">
-        <v>161.9879688231744</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D3" t="n">
         <v>146.1124235746456</v>
@@ -22671,25 +22673,25 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>57.83558556915582</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -22729,7 +22731,7 @@
         <v>88.83884492777894</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -22747,13 +22749,13 @@
         <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>0</v>
+        <v>79.76069987584818</v>
       </c>
       <c r="R4" t="n">
-        <v>89.01313062185548</v>
+        <v>173.3911476697823</v>
       </c>
       <c r="S4" t="n">
-        <v>222.3574069614225</v>
+        <v>43.44428031981417</v>
       </c>
       <c r="T4" t="n">
         <v>228.3324659915077</v>
@@ -22784,7 +22786,7 @@
         <v>383.716409991395</v>
       </c>
       <c r="C5" t="n">
-        <v>330.6202260405834</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D5" t="n">
         <v>356.6047327545984</v>
@@ -22793,7 +22795,7 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F5" t="n">
-        <v>133.0100561389384</v>
+        <v>371.5882709767439</v>
       </c>
       <c r="G5" t="n">
         <v>140.5709580622284</v>
@@ -22805,7 +22807,7 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -22850,7 +22852,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="6">
@@ -22860,28 +22862,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>50.59846856447039</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -22908,28 +22910,28 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>168.9616139056444</v>
+        <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>224.6571770672012</v>
+        <v>75.91620127950074</v>
       </c>
       <c r="V6" t="n">
         <v>231.9087310396551</v>
       </c>
       <c r="W6" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y6" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -22960,13 +22962,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>153.7585467974036</v>
       </c>
       <c r="J7" t="n">
-        <v>78.45867480140755</v>
+        <v>88.83884492777894</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>14.77440971783335</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -22984,10 +22986,10 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>79.76069987584818</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="R7" t="n">
-        <v>173.3911476697823</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>222.3574069614225</v>
@@ -23066,28 +23068,28 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>205.8649517235392</v>
       </c>
       <c r="T8" t="n">
-        <v>32.00186300769266</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V8" t="n">
-        <v>54.24941418091686</v>
+        <v>86.944044016036</v>
       </c>
       <c r="W8" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X8" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="9">
@@ -23097,10 +23099,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0</v>
+        <v>50.59846856447039</v>
       </c>
       <c r="C9" t="n">
-        <v>50.59846856447035</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -23221,13 +23223,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>173.3911476697823</v>
+        <v>74.23872090402212</v>
       </c>
       <c r="S10" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T10" t="n">
         <v>228.3324659915077</v>
@@ -23264,19 +23266,19 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E11" t="n">
-        <v>383.1180357552875</v>
+        <v>346.7531661169282</v>
       </c>
       <c r="F11" t="n">
-        <v>407.2938634805408</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G11" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H11" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655084</v>
       </c>
       <c r="I11" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0.6592771345624158</v>
@@ -23312,19 +23314,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U11" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V11" t="n">
         <v>328.5332215225193</v>
       </c>
       <c r="W11" t="n">
-        <v>76.2463096589521</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X11" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y11" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="12">
@@ -23334,7 +23336,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>50.59846856447039</v>
+        <v>50.59846856447017</v>
       </c>
       <c r="C12" t="n">
         <v>0</v>
@@ -23422,10 +23424,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E13" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G13" t="n">
         <v>167.8895889301081</v>
@@ -23434,13 +23436,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I13" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J13" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L13" t="n">
         <v>0</v>
@@ -23504,13 +23506,13 @@
         <v>383.1180357552875</v>
       </c>
       <c r="F14" t="n">
-        <v>238.4960092014561</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G14" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H14" t="n">
-        <v>63.86009604655089</v>
+        <v>63.86009604655084</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23540,7 +23542,7 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>0</v>
+        <v>141.8508227008771</v>
       </c>
       <c r="S14" t="n">
         <v>205.8649517235392</v>
@@ -23552,7 +23554,7 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V14" t="n">
-        <v>328.5332215225193</v>
+        <v>292.1683518841601</v>
       </c>
       <c r="W14" t="n">
         <v>350.5301170005546</v>
@@ -23571,7 +23573,7 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0</v>
+        <v>50.59846856447017</v>
       </c>
       <c r="C15" t="n">
         <v>0</v>
@@ -23580,19 +23582,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>27.76346545686042</v>
+        <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H15" t="n">
-        <v>110.4625155221328</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>86.50354346547167</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -23634,13 +23636,13 @@
         <v>231.9087310396551</v>
       </c>
       <c r="W15" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X15" t="n">
         <v>204.4616296084783</v>
       </c>
       <c r="Y15" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="16">
@@ -23650,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1.170564849075447</v>
+        <v>180.0836914906838</v>
       </c>
       <c r="C16" t="n">
         <v>167.3365529312023</v>
@@ -23671,13 +23673,13 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I16" t="n">
-        <v>153.7585467974036</v>
+        <v>78.45867480140757</v>
       </c>
       <c r="J16" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>14.77440971783335</v>
+        <v>0</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -23741,13 +23743,13 @@
         <v>346.7531661169282</v>
       </c>
       <c r="F17" t="n">
-        <v>133.0100561389384</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G17" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H17" t="n">
-        <v>63.86009604655089</v>
+        <v>63.86009604655084</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23808,7 +23810,7 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>145.2934483255617</v>
+        <v>50.59846856447017</v>
       </c>
       <c r="C18" t="n">
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S18" t="n">
         <v>168.9616139056444</v>
@@ -23932,16 +23934,16 @@
         <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>79.76069987584818</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
         <v>173.3911476697823</v>
       </c>
       <c r="S19" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T19" t="n">
-        <v>228.3324659915077</v>
+        <v>129.1800392257475</v>
       </c>
       <c r="U19" t="n">
         <v>286.0522703910642</v>
@@ -23966,13 +23968,13 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>365.0923496813321</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C20" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D20" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E20" t="n">
         <v>383.1180357552875</v>
@@ -23987,7 +23989,7 @@
         <v>338.1439033881534</v>
       </c>
       <c r="I20" t="n">
-        <v>205.224307868124</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0.6592771345624158</v>
@@ -24020,22 +24022,22 @@
         <v>205.8649517235392</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>222.9651171964204</v>
       </c>
       <c r="U20" t="n">
-        <v>251.4777635765444</v>
+        <v>215.1128939381852</v>
       </c>
       <c r="V20" t="n">
-        <v>328.5332215225193</v>
+        <v>54.2494141809168</v>
       </c>
       <c r="W20" t="n">
-        <v>350.5301170005546</v>
+        <v>76.24630965895204</v>
       </c>
       <c r="X20" t="n">
-        <v>96.5777917895669</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y20" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="21">
@@ -24048,7 +24050,7 @@
         <v>165.3721256103448</v>
       </c>
       <c r="C21" t="n">
-        <v>43.85842921910003</v>
+        <v>41.06286669982657</v>
       </c>
       <c r="D21" t="n">
         <v>146.1124235746456</v>
@@ -24057,7 +24059,7 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F21" t="n">
-        <v>143.5062320835493</v>
+        <v>0</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -24093,13 +24095,13 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S21" t="n">
         <v>168.9616139056444</v>
       </c>
       <c r="T21" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U21" t="n">
         <v>0</v>
@@ -24108,7 +24110,7 @@
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0</v>
+        <v>249.98934675</v>
       </c>
       <c r="X21" t="n">
         <v>204.4616296084783</v>
@@ -24184,10 +24186,10 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V22" t="n">
-        <v>252.9363510669392</v>
+        <v>74.02322442533077</v>
       </c>
       <c r="W22" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X22" t="n">
         <v>226.1403599323093</v>
@@ -24203,19 +24205,19 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C23" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D23" t="n">
-        <v>82.3209254129959</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E23" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F23" t="n">
-        <v>407.2938634805408</v>
+        <v>166.36396310862</v>
       </c>
       <c r="G23" t="n">
         <v>414.8547654038309</v>
@@ -24227,7 +24229,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J23" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -24263,13 +24265,13 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V23" t="n">
-        <v>54.24941418091686</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W23" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X23" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y23" t="n">
         <v>386.6870717512358</v>
@@ -24282,10 +24284,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C24" t="n">
-        <v>47.43403684743234</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D24" t="n">
         <v>146.1124235746456</v>
@@ -24333,25 +24335,25 @@
         <v>94.69497976109122</v>
       </c>
       <c r="S24" t="n">
-        <v>0</v>
+        <v>9.458801139478396</v>
       </c>
       <c r="T24" t="n">
         <v>0</v>
       </c>
       <c r="U24" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V24" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W24" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X24" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y24" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="25">
@@ -24382,10 +24384,10 @@
         <v>161.6340720089168</v>
       </c>
       <c r="I25" t="n">
-        <v>153.7585467974036</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>88.83884492777894</v>
+        <v>63.6842650835742</v>
       </c>
       <c r="K25" t="n">
         <v>14.77440971783335</v>
@@ -24424,7 +24426,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W25" t="n">
-        <v>107.1794502458072</v>
+        <v>286.0925768874155</v>
       </c>
       <c r="X25" t="n">
         <v>226.1403599323093</v>
@@ -24440,31 +24442,31 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C26" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D26" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E26" t="n">
-        <v>108.834228413685</v>
+        <v>383.1180357552875</v>
       </c>
       <c r="F26" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G26" t="n">
-        <v>414.8547654038309</v>
+        <v>140.5709580622284</v>
       </c>
       <c r="H26" t="n">
-        <v>338.1439033881534</v>
+        <v>63.86009604655089</v>
       </c>
       <c r="I26" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J26" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -24488,7 +24490,7 @@
         <v>0</v>
       </c>
       <c r="R26" t="n">
-        <v>141.8508227008771</v>
+        <v>0</v>
       </c>
       <c r="S26" t="n">
         <v>205.8649517235392</v>
@@ -24500,10 +24502,10 @@
         <v>251.4777635765444</v>
       </c>
       <c r="V26" t="n">
-        <v>86.944044016036</v>
+        <v>328.5332215225193</v>
       </c>
       <c r="W26" t="n">
-        <v>76.2463096589521</v>
+        <v>251.4510393295108</v>
       </c>
       <c r="X26" t="n">
         <v>370.8615991311694</v>
@@ -24519,7 +24521,7 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C27" t="n">
         <v>0</v>
@@ -24534,13 +24536,13 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H27" t="n">
         <v>110.4625155221328</v>
       </c>
       <c r="I27" t="n">
-        <v>86.50354346547167</v>
+        <v>43.8890815202525</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -24567,7 +24569,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>94.69497976109122</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>168.9616139056444</v>
@@ -24579,13 +24581,13 @@
         <v>0</v>
       </c>
       <c r="V27" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W27" t="n">
         <v>249.98934675</v>
       </c>
       <c r="X27" t="n">
-        <v>136.6387926778998</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y27" t="n">
         <v>203.671151418586</v>
@@ -24622,7 +24624,7 @@
         <v>153.7585467974036</v>
       </c>
       <c r="J28" t="n">
-        <v>88.83884492777894</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
         <v>14.77440971783335</v>
@@ -24652,13 +24654,13 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T28" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U28" t="n">
         <v>286.0522703910642</v>
       </c>
       <c r="V28" t="n">
-        <v>252.9363510669392</v>
+        <v>162.8620693531097</v>
       </c>
       <c r="W28" t="n">
         <v>286.0925768874155</v>
@@ -24680,10 +24682,10 @@
         <v>383.716409991395</v>
       </c>
       <c r="C29" t="n">
-        <v>103.2491515419636</v>
+        <v>366.9850956789426</v>
       </c>
       <c r="D29" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E29" t="n">
         <v>383.1180357552875</v>
@@ -24734,16 +24736,16 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U29" t="n">
-        <v>0</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V29" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W29" t="n">
-        <v>350.5301170005546</v>
+        <v>76.2463096589521</v>
       </c>
       <c r="X29" t="n">
-        <v>370.8615991311694</v>
+        <v>96.5777917895669</v>
       </c>
       <c r="Y29" t="n">
         <v>386.6870717512358</v>
@@ -24756,16 +24758,16 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C30" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D30" t="n">
         <v>146.1124235746456</v>
       </c>
       <c r="E30" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F30" t="n">
         <v>143.5062320835493</v>
@@ -24804,28 +24806,28 @@
         <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S30" t="n">
-        <v>168.9616139056444</v>
+        <v>9.458801139478624</v>
       </c>
       <c r="T30" t="n">
-        <v>198.3825319082687</v>
+        <v>0</v>
       </c>
       <c r="U30" t="n">
-        <v>224.6571770672012</v>
+        <v>0</v>
       </c>
       <c r="V30" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W30" t="n">
-        <v>180.8076512517844</v>
+        <v>0</v>
       </c>
       <c r="X30" t="n">
-        <v>0</v>
+        <v>204.4616296084783</v>
       </c>
       <c r="Y30" t="n">
-        <v>0</v>
+        <v>203.671151418586</v>
       </c>
     </row>
     <row r="31">
@@ -24838,16 +24840,16 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D31" t="n">
         <v>149.0055665145194</v>
       </c>
       <c r="E31" t="n">
-        <v>146.9746241731992</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>146.1590214098045</v>
+        <v>114.2205189413953</v>
       </c>
       <c r="G31" t="n">
         <v>167.8895889301081</v>
@@ -24892,7 +24894,7 @@
         <v>228.3324659915077</v>
       </c>
       <c r="U31" t="n">
-        <v>274.4756966806581</v>
+        <v>286.0522703910642</v>
       </c>
       <c r="V31" t="n">
         <v>252.9363510669392</v>
@@ -24914,7 +24916,7 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497926</v>
       </c>
       <c r="C32" t="n">
         <v>366.9850956789426</v>
@@ -24932,13 +24934,13 @@
         <v>414.8547654038309</v>
       </c>
       <c r="H32" t="n">
-        <v>63.86009604655089</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I32" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J32" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -24971,19 +24973,19 @@
         <v>222.9651171964204</v>
       </c>
       <c r="U32" t="n">
-        <v>9.888586070061081</v>
+        <v>251.4777635765444</v>
       </c>
       <c r="V32" t="n">
-        <v>328.5332215225193</v>
+        <v>87.60332115059845</v>
       </c>
       <c r="W32" t="n">
         <v>76.2463096589521</v>
       </c>
       <c r="X32" t="n">
-        <v>96.5777917895669</v>
+        <v>370.8615991311694</v>
       </c>
       <c r="Y32" t="n">
-        <v>386.6870717512358</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="33">
@@ -25005,10 +25007,10 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F33" t="n">
-        <v>143.5062320835493</v>
+        <v>126.1057272226353</v>
       </c>
       <c r="G33" t="n">
-        <v>136.0232102050423</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
         <v>110.4625155221328</v>
@@ -25047,7 +25049,7 @@
         <v>168.9616139056444</v>
       </c>
       <c r="T33" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U33" t="n">
         <v>0</v>
@@ -25059,7 +25061,7 @@
         <v>0</v>
       </c>
       <c r="X33" t="n">
-        <v>44.95881684231247</v>
+        <v>0</v>
       </c>
       <c r="Y33" t="n">
         <v>203.671151418586</v>
@@ -25081,10 +25083,10 @@
         <v>149.0055665145194</v>
       </c>
       <c r="E34" t="n">
-        <v>114.2205189413953</v>
+        <v>146.9746241731992</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>146.1590214098045</v>
       </c>
       <c r="G34" t="n">
         <v>167.8895889301081</v>
@@ -25135,7 +25137,7 @@
         <v>252.9363510669392</v>
       </c>
       <c r="W34" t="n">
-        <v>286.0925768874155</v>
+        <v>107.1794502458071</v>
       </c>
       <c r="X34" t="n">
         <v>226.1403599323093</v>
@@ -25151,22 +25153,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>142.1272324849117</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C35" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D35" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E35" t="n">
-        <v>383.1180357552875</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F35" t="n">
-        <v>133.0100561389384</v>
+        <v>166.36396310862</v>
       </c>
       <c r="G35" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H35" t="n">
         <v>338.1439033881534</v>
@@ -25175,7 +25177,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J35" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -25220,7 +25222,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y35" t="n">
-        <v>112.4032644096333</v>
+        <v>386.6870717512358</v>
       </c>
     </row>
     <row r="36">
@@ -25287,7 +25289,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U36" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -25299,7 +25301,7 @@
         <v>0</v>
       </c>
       <c r="Y36" t="n">
-        <v>50.24743635262973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
@@ -25315,10 +25317,10 @@
         <v>167.3365529312023</v>
       </c>
       <c r="D37" t="n">
-        <v>149.0055665145194</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.9746241731992</v>
+        <v>117.0670640461101</v>
       </c>
       <c r="F37" t="n">
         <v>146.1590214098045</v>
@@ -25360,7 +25362,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S37" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T37" t="n">
         <v>228.3324659915077</v>
@@ -25388,7 +25390,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C38" t="n">
         <v>366.9850956789426</v>
@@ -25397,22 +25399,22 @@
         <v>356.6047327545984</v>
       </c>
       <c r="E38" t="n">
-        <v>108.834228413685</v>
+        <v>108.8342284136849</v>
       </c>
       <c r="F38" t="n">
-        <v>133.0100561389384</v>
+        <v>166.36396310862</v>
       </c>
       <c r="G38" t="n">
         <v>140.5709580622284</v>
       </c>
       <c r="H38" t="n">
-        <v>96.55472588167004</v>
+        <v>338.1439033881534</v>
       </c>
       <c r="I38" t="n">
         <v>205.224307868124</v>
       </c>
       <c r="J38" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -25479,16 +25481,16 @@
         <v>156.0334337071738</v>
       </c>
       <c r="F39" t="n">
-        <v>98.75120438711073</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H39" t="n">
-        <v>0</v>
+        <v>110.4625155221328</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>86.50354346547167</v>
       </c>
       <c r="J39" t="n">
         <v>0</v>
@@ -25515,28 +25517,28 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S39" t="n">
-        <v>0</v>
+        <v>168.9616139056444</v>
       </c>
       <c r="T39" t="n">
-        <v>0</v>
+        <v>198.3825319082687</v>
       </c>
       <c r="U39" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V39" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W39" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X39" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y39" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -25549,10 +25551,10 @@
         <v>180.0836914906838</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.3365529312023</v>
       </c>
       <c r="D40" t="n">
-        <v>137.4289928041133</v>
+        <v>149.0055665145194</v>
       </c>
       <c r="E40" t="n">
         <v>146.9746241731992</v>
@@ -25600,7 +25602,7 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T40" t="n">
-        <v>228.3324659915077</v>
+        <v>49.4193393498993</v>
       </c>
       <c r="U40" t="n">
         <v>286.0522703910642</v>
@@ -25625,22 +25627,22 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>109.4326026497926</v>
+        <v>383.716409991395</v>
       </c>
       <c r="C41" t="n">
-        <v>366.9850956789426</v>
+        <v>92.70128833734009</v>
       </c>
       <c r="D41" t="n">
-        <v>356.6047327545984</v>
+        <v>82.32092541299585</v>
       </c>
       <c r="E41" t="n">
-        <v>383.1180357552875</v>
+        <v>142.1881353833666</v>
       </c>
       <c r="F41" t="n">
         <v>407.2938634805408</v>
       </c>
       <c r="G41" t="n">
-        <v>140.5709580622284</v>
+        <v>414.8547654038309</v>
       </c>
       <c r="H41" t="n">
         <v>338.1439033881534</v>
@@ -25649,7 +25651,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J41" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
@@ -25688,10 +25690,10 @@
         <v>328.5332215225193</v>
       </c>
       <c r="W41" t="n">
-        <v>108.9409394940712</v>
+        <v>350.5301170005546</v>
       </c>
       <c r="X41" t="n">
-        <v>96.5777917895669</v>
+        <v>96.57779178956685</v>
       </c>
       <c r="Y41" t="n">
         <v>386.6870717512358</v>
@@ -25713,10 +25715,10 @@
         <v>146.1124235746456</v>
       </c>
       <c r="E42" t="n">
-        <v>36.34930087737985</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F42" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G42" t="n">
         <v>136.0232102050423</v>
@@ -25752,7 +25754,7 @@
         <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>94.69497976109122</v>
       </c>
       <c r="S42" t="n">
         <v>168.9616139056444</v>
@@ -25761,7 +25763,7 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U42" t="n">
-        <v>0</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -25770,10 +25772,10 @@
         <v>0</v>
       </c>
       <c r="X42" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y42" t="n">
-        <v>203.671151418586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -25834,7 +25836,7 @@
         <v>173.3911476697823</v>
       </c>
       <c r="S43" t="n">
-        <v>43.44428031981417</v>
+        <v>222.3574069614225</v>
       </c>
       <c r="T43" t="n">
         <v>228.3324659915077</v>
@@ -25843,7 +25845,7 @@
         <v>286.0522703910642</v>
       </c>
       <c r="V43" t="n">
-        <v>252.9363510669392</v>
+        <v>74.0232244253308</v>
       </c>
       <c r="W43" t="n">
         <v>286.0925768874155</v>
@@ -25862,22 +25864,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>383.716409991395</v>
+        <v>109.4326026497925</v>
       </c>
       <c r="C44" t="n">
         <v>366.9850956789426</v>
       </c>
       <c r="D44" t="n">
-        <v>82.3209254129959</v>
+        <v>356.6047327545984</v>
       </c>
       <c r="E44" t="n">
         <v>383.1180357552875</v>
       </c>
       <c r="F44" t="n">
-        <v>133.0100561389384</v>
+        <v>133.0100561389383</v>
       </c>
       <c r="G44" t="n">
-        <v>140.5709580622284</v>
+        <v>173.9248650319101</v>
       </c>
       <c r="H44" t="n">
         <v>338.1439033881534</v>
@@ -25886,7 +25888,7 @@
         <v>205.224307868124</v>
       </c>
       <c r="J44" t="n">
-        <v>0.6592771345624158</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
@@ -25931,7 +25933,7 @@
         <v>370.8615991311694</v>
       </c>
       <c r="Y44" t="n">
-        <v>145.0978942447525</v>
+        <v>112.4032644096333</v>
       </c>
     </row>
     <row r="45">
@@ -25941,22 +25943,22 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>0</v>
+        <v>165.3721256103448</v>
       </c>
       <c r="C45" t="n">
-        <v>0</v>
+        <v>171.025583927401</v>
       </c>
       <c r="D45" t="n">
-        <v>0</v>
+        <v>146.1124235746456</v>
       </c>
       <c r="E45" t="n">
-        <v>0</v>
+        <v>156.0334337071738</v>
       </c>
       <c r="F45" t="n">
-        <v>0</v>
+        <v>143.5062320835493</v>
       </c>
       <c r="G45" t="n">
-        <v>0</v>
+        <v>136.0232102050423</v>
       </c>
       <c r="H45" t="n">
         <v>110.4625155221328</v>
@@ -25998,19 +26000,19 @@
         <v>198.3825319082687</v>
       </c>
       <c r="U45" t="n">
-        <v>224.6571770672012</v>
+        <v>50.24743635262965</v>
       </c>
       <c r="V45" t="n">
-        <v>231.9087310396551</v>
+        <v>0</v>
       </c>
       <c r="W45" t="n">
-        <v>249.98934675</v>
+        <v>0</v>
       </c>
       <c r="X45" t="n">
-        <v>204.4616296084783</v>
+        <v>0</v>
       </c>
       <c r="Y45" t="n">
-        <v>57.3035609954521</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -26035,7 +26037,7 @@
         <v>146.1590214098045</v>
       </c>
       <c r="G46" t="n">
-        <v>167.8895889301081</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>161.6340720089168</v>
@@ -26074,10 +26076,10 @@
         <v>222.3574069614225</v>
       </c>
       <c r="T46" t="n">
-        <v>49.4193393498993</v>
+        <v>228.3324659915077</v>
       </c>
       <c r="U46" t="n">
-        <v>286.0522703910642</v>
+        <v>275.0287326795639</v>
       </c>
       <c r="V46" t="n">
         <v>252.9363510669392</v>
@@ -26123,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>502349.8543166174</v>
+        <v>502349.8543166173</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26133,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>502349.8543166171</v>
+        <v>502349.8543166173</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>502349.8543166172</v>
+        <v>502349.8543166171</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>502349.8543166172</v>
+        <v>502349.8543166171</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>502349.8543166172</v>
+        <v>502349.8543166171</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>502349.8543166172</v>
+        <v>502349.8543166171</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>502349.8543166171</v>
+        <v>502349.8543166172</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>502349.8543166173</v>
+        <v>502349.8543166172</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>502349.8543166173</v>
+        <v>502349.8543166172</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>502349.8543166172</v>
+        <v>502349.8543166171</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>502349.8543166171</v>
+        <v>502349.8543166173</v>
       </c>
     </row>
   </sheetData>
@@ -26311,10 +26313,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="C2" t="n">
-        <v>121223.9866896455</v>
+        <v>121223.9866896454</v>
       </c>
       <c r="D2" t="n">
         <v>121223.9866896455</v>
@@ -26332,7 +26334,7 @@
         <v>121223.9866896454</v>
       </c>
       <c r="I2" t="n">
-        <v>121223.9866896454</v>
+        <v>121223.9866896455</v>
       </c>
       <c r="J2" t="n">
         <v>121223.9866896454</v>
@@ -26341,13 +26343,13 @@
         <v>121223.9866896454</v>
       </c>
       <c r="L2" t="n">
+        <v>121223.9866896454</v>
+      </c>
+      <c r="M2" t="n">
         <v>121223.9866896455</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>121223.9866896454</v>
-      </c>
-      <c r="N2" t="n">
-        <v>121223.9866896455</v>
       </c>
       <c r="O2" t="n">
         <v>121223.9866896454</v>
@@ -26363,7 +26365,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>91918.81236773984</v>
+        <v>91918.81236773985</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26387,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>71764.71248808624</v>
+        <v>71764.71248808622</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>17659.22691552231</v>
+        <v>17659.22691552232</v>
       </c>
       <c r="C4" t="n">
         <v>17659.22691552232</v>
       </c>
       <c r="D4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="E4" t="n">
         <v>17659.22691552232</v>
@@ -26430,28 +26432,28 @@
         <v>17659.22691552232</v>
       </c>
       <c r="G4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="H4" t="n">
         <v>17659.22691552232</v>
       </c>
       <c r="I4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="J4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="K4" t="n">
         <v>17659.22691552232</v>
       </c>
       <c r="L4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="M4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="N4" t="n">
-        <v>17659.22691552232</v>
+        <v>17659.22691552231</v>
       </c>
       <c r="O4" t="n">
         <v>17659.22691552232</v>
@@ -26519,43 +26521,43 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-38658.10807998612</v>
+        <v>-38658.10807998615</v>
       </c>
       <c r="C6" t="n">
-        <v>53260.70428775372</v>
+        <v>53260.70428775367</v>
       </c>
       <c r="D6" t="n">
         <v>53260.70428775372</v>
       </c>
       <c r="E6" t="n">
-        <v>86888.30428775368</v>
+        <v>86888.30428775369</v>
       </c>
       <c r="F6" t="n">
-        <v>86888.30428775368</v>
+        <v>86888.30428775366</v>
       </c>
       <c r="G6" t="n">
         <v>86888.30428775371</v>
       </c>
       <c r="H6" t="n">
-        <v>86888.30428775368</v>
+        <v>86888.30428775366</v>
       </c>
       <c r="I6" t="n">
+        <v>86888.30428775374</v>
+      </c>
+      <c r="J6" t="n">
+        <v>15123.59179966744</v>
+      </c>
+      <c r="K6" t="n">
         <v>86888.30428775371</v>
       </c>
-      <c r="J6" t="n">
-        <v>15123.59179966745</v>
-      </c>
-      <c r="K6" t="n">
-        <v>86888.30428775368</v>
-      </c>
       <c r="L6" t="n">
+        <v>86888.30428775369</v>
+      </c>
+      <c r="M6" t="n">
         <v>86888.30428775371</v>
       </c>
-      <c r="M6" t="n">
-        <v>86888.30428775368</v>
-      </c>
       <c r="N6" t="n">
-        <v>86888.30428775374</v>
+        <v>86888.30428775371</v>
       </c>
       <c r="O6" t="n">
         <v>86888.30428775368</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>274.2838073416025</v>
+        <v>274.2838073416024</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -34699,7 +34701,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>122.5236243051552</v>
+        <v>122.5236243051553</v>
       </c>
       <c r="L2" t="n">
         <v>204.4954085367308</v>
@@ -34775,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M3" t="n">
-        <v>258.6093926083634</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N3" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O3" t="n">
-        <v>270.5854737144654</v>
+        <v>56.78741806046166</v>
       </c>
       <c r="P3" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>81.99814951141209</v>
@@ -34948,7 +34950,7 @@
         <v>231.1630643817873</v>
       </c>
       <c r="O5" t="n">
-        <v>171.6864323771105</v>
+        <v>171.6864323771106</v>
       </c>
       <c r="P5" t="n">
         <v>109.2184856369541</v>
@@ -35015,10 +35017,10 @@
         <v>7.467990754025152</v>
       </c>
       <c r="K6" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>274.2838073416025</v>
@@ -35027,10 +35029,10 @@
         <v>274.2838073416025</v>
       </c>
       <c r="O6" t="n">
-        <v>56.78741806046166</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>177.4338266692982</v>
       </c>
       <c r="Q6" t="n">
         <v>81.99814951141209</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L9" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N9" t="n">
-        <v>212.4931427569136</v>
+        <v>117.9609491152816</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>270.5854737144654</v>
       </c>
       <c r="P9" t="n">
         <v>200.5762321565626</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35428,7 +35430,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q11" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,22 +35488,22 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L12" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M12" t="n">
-        <v>8.025953778143093</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N12" t="n">
-        <v>274.2838073416025</v>
+        <v>130.4949932455017</v>
       </c>
       <c r="O12" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>200.5762321565626</v>
@@ -35662,7 +35664,7 @@
         <v>171.6864323771106</v>
       </c>
       <c r="P14" t="n">
-        <v>109.2184856369541</v>
+        <v>109.2184856369543</v>
       </c>
       <c r="Q14" t="n">
         <v>4.059542658712616</v>
@@ -35723,25 +35725,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K15" t="n">
         <v>140.6484434930818</v>
       </c>
       <c r="L15" t="n">
-        <v>117.9609491152816</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M15" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N15" t="n">
-        <v>274.2838073416025</v>
+        <v>60.48575168759884</v>
       </c>
       <c r="O15" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P15" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>81.99814951141209</v>
@@ -35969,13 +35971,13 @@
         <v>250.5834388302202</v>
       </c>
       <c r="M18" t="n">
-        <v>223.6594671380758</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N18" t="n">
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>270.5854737144654</v>
+        <v>219.9611335109389</v>
       </c>
       <c r="P18" t="n">
         <v>200.5762321565626</v>
@@ -36139,7 +36141,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q20" t="n">
-        <v>4.059542658712616</v>
+        <v>4.059542658712941</v>
       </c>
       <c r="R20" t="n">
         <v>0</v>
@@ -36197,16 +36199,16 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>7.467990754025152</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>8.848537350490295</v>
       </c>
       <c r="L21" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M21" t="n">
-        <v>90.02410328955504</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="N21" t="n">
         <v>274.2838073416025</v>
@@ -36215,7 +36217,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P21" t="n">
-        <v>200.5762321565626</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
         <v>0</v>
@@ -36437,16 +36439,16 @@
         <v>0</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L24" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M24" t="n">
-        <v>274.2838073416025</v>
+        <v>223.659467138076</v>
       </c>
       <c r="N24" t="n">
-        <v>90.0241032895551</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
         <v>270.5854737144654</v>
@@ -36671,19 +36673,19 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>250.5834388302202</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>134.1933268726387</v>
+        <v>258.6093926083634</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O27" t="n">
         <v>270.5854737144654</v>
@@ -36838,7 +36840,7 @@
         <v>204.4954085367308</v>
       </c>
       <c r="M29" t="n">
-        <v>242.9064974359548</v>
+        <v>242.9064974359549</v>
       </c>
       <c r="N29" t="n">
         <v>231.1630643817873</v>
@@ -36908,28 +36910,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>8.84853735049013</v>
+        <v>140.6484434930818</v>
       </c>
       <c r="L30" t="n">
         <v>250.5834388302202</v>
       </c>
       <c r="M30" t="n">
-        <v>274.2838073416025</v>
+        <v>137.9629839995266</v>
       </c>
       <c r="N30" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="O30" t="n">
-        <v>270.5854737144654</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>81.99814951141209</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37145,28 +37147,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>177.4338266692982</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M33" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N33" t="n">
-        <v>274.2838073416025</v>
+        <v>90.0241032895551</v>
       </c>
       <c r="O33" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q33" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37324,7 +37326,7 @@
         <v>109.2184856369541</v>
       </c>
       <c r="Q35" t="n">
-        <v>4.059542658712711</v>
+        <v>4.059542658712616</v>
       </c>
       <c r="R35" t="n">
         <v>0</v>
@@ -37382,7 +37384,7 @@
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
         <v>0</v>
@@ -37394,16 +37396,16 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N36" t="n">
-        <v>201.1341951806804</v>
+        <v>274.2838073416025</v>
       </c>
       <c r="O36" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q36" t="n">
-        <v>81.99814951141209</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37619,7 +37621,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37637,7 +37639,7 @@
         <v>270.5854737144654</v>
       </c>
       <c r="P39" t="n">
-        <v>8.848537350489996</v>
+        <v>16.31652810451531</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -37868,13 +37870,13 @@
         <v>274.2838073416025</v>
       </c>
       <c r="N42" t="n">
-        <v>274.2838073416025</v>
+        <v>82.55611253553002</v>
       </c>
       <c r="O42" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P42" t="n">
-        <v>8.848537350489996</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -38093,25 +38095,25 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>7.467990754025152</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>140.6484434930818</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>118.7835326876286</v>
+        <v>250.5834388302202</v>
       </c>
       <c r="M45" t="n">
         <v>274.2838073416025</v>
       </c>
       <c r="N45" t="n">
-        <v>274.2838073416025</v>
+        <v>90.02410328955521</v>
       </c>
       <c r="O45" t="n">
         <v>270.5854737144654</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>200.5762321565626</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
